--- a/AEF_files/10.syntax.passed/202504251541---Thailand AEF_2024.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/202504251541---Thailand AEF_2024.syntax_checked.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1920" yWindow="7700" windowWidth="41540" windowHeight="17720" tabRatio="618" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1920" yWindow="7700" windowWidth="41540" windowHeight="17720" tabRatio="618" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" state="visible" r:id="rId1"/>
@@ -2257,8 +2257,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="216" zoomScaleNormal="139" zoomScaleSheetLayoutView="216" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="216" zoomScaleNormal="139" zoomScaleSheetLayoutView="216" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>THA</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
   </sheetPr>
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="74" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="74" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4602,8 +4602,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -4913,17 +4913,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B5E9BF-BD88-4C57-8D2E-68BA48F27427}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3C6967A-0387-445B-9288-191B53309DA4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9997D485-6D9B-4FA2-881D-1AD81B4B20F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C330C2B2-E006-41D7-9AB3-205FD5A6772D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9155D3CA-4AA1-4F6A-93AB-69EBD0E0DDE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABC53B2-5C1F-4191-ABA4-6AA19037ABD8}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A5EF8F5-6996-4DDA-8935-A64356784B31}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC02A60-7DF9-4F84-964B-A882479A30AF}"/>
 </file>
--- a/AEF_files/10.syntax.passed/202504251541---Thailand AEF_2024.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/202504251541---Thailand AEF_2024.syntax_checked.xlsx
@@ -4913,17 +4913,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3C6967A-0387-445B-9288-191B53309DA4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBE7325D-D20D-452C-926E-120CCE76722B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C330C2B2-E006-41D7-9AB3-205FD5A6772D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0723B6A8-39F9-457F-8B84-9CD5E60B232F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABC53B2-5C1F-4191-ABA4-6AA19037ABD8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B70B8623-E534-4D13-986A-C322AEDD7AFA}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC02A60-7DF9-4F84-964B-A882479A30AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AAFBB15-0A4C-4564-A99A-8A5A76B9DADE}"/>
 </file>